--- a/WebContent/Document/業務フロー.xlsx
+++ b/WebContent/Document/業務フロー.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddlfm\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88012DC0-5AB3-4756-A6FF-FE360C8F3864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{7E9BB3F0-2B5F-4450-925A-3079CED2A47E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -221,8 +215,7 @@
     <definedName name="HTML24_2" hidden="1">1</definedName>
     <definedName name="HTML24_3" hidden="1">"部門別店別売上実績"</definedName>
     <definedName name="HTML24_4" hidden="1">"1998年47週累計(2/16～1/10) エイリア別"</definedName>
-    <definedName name="HTML24_5" hidden="1">"売上日計表より　単位:実績は万円,客数は人,比率は％ 
-既存店２は11,12,18,21,45,53,64,65,66,67,68,69店除く"</definedName>
+    <definedName name="HTML24_5" hidden="1">"売上日計表より　単位:実績は万円,客数は人,比率は％ 既存店２は11,12,18,21,45,53,64,65,66,67,68,69店除く"</definedName>
     <definedName name="HTML24_6" hidden="1">-4146</definedName>
     <definedName name="HTML24_7" hidden="1">-4146</definedName>
     <definedName name="HTML24_8" hidden="1">"99/01/09"</definedName>
@@ -246,8 +239,7 @@
     <definedName name="HTML26_2" hidden="1">1</definedName>
     <definedName name="HTML26_3" hidden="1">"週間数値"</definedName>
     <definedName name="HTML26_4" hidden="1">"週間数値　45週(12/21～12/27)"</definedName>
-    <definedName name="HTML26_5" hidden="1">"単位：万円　　＊既存店は 11,12,18,21,45,56,53,64～69店を除く
-"</definedName>
+    <definedName name="HTML26_5" hidden="1">"単位：万円　　＊既存店は 11,12,18,21,45,56,53,64～69店を除く"</definedName>
     <definedName name="HTML26_6" hidden="1">-4146</definedName>
     <definedName name="HTML26_7" hidden="1">-4146</definedName>
     <definedName name="HTML26_8" hidden="1">"98/12/28"</definedName>
@@ -374,9 +366,9 @@
     <definedName name="HTML9_9" hidden="1">"オフィス庶務"</definedName>
     <definedName name="HTMLCount" hidden="1">21</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -394,7 +386,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
   <si>
     <t>図書管理システム</t>
     <rPh sb="0" eb="2">
@@ -541,13 +533,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>要件定義書別紙</t>
-    <rPh sb="0" eb="7">
-      <t>ヨウケンテイギショベッシ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>サブシステム名</t>
     <rPh sb="0" eb="7">
       <t>メイ</t>
@@ -568,13 +553,6 @@
     <t>更新者</t>
     <rPh sb="0" eb="3">
       <t>コウシンシャ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>業務フロー</t>
-    <rPh sb="0" eb="5">
-      <t>ギョウム</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -600,13 +578,6 @@
     <t>登場人物</t>
     <rPh sb="0" eb="4">
       <t>トウジョウジンブツ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -809,11 +780,15 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>業務フロー</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.0.0"/>
@@ -968,7 +943,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1166,15 +1141,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1383,63 +1349,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1596,7 +1505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1669,23 +1578,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1696,22 +1608,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -1768,15 +1677,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1786,53 +1686,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1840,37 +1713,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{31519CEE-F3E9-488C-944A-C8AEAD587B83}"/>
-    <cellStyle name="標準 2 4 2" xfId="4" xr:uid="{5B1FB533-5BEE-446C-B3EE-B87DADE8FD59}"/>
-    <cellStyle name="標準_SIES38-土壌-設002" xfId="3" xr:uid="{59029316-CF07-407D-B2D5-B1E85EFB3009}"/>
-    <cellStyle name="標準_表紙1" xfId="2" xr:uid="{B9428D95-E04B-44CA-8CEC-A76C71F468D3}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 4 2" xfId="4"/>
+    <cellStyle name="標準_SIES38-土壌-設002" xfId="3"/>
+    <cellStyle name="標準_表紙1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1905,7 +1811,7 @@
         <xdr:cNvPr id="2" name="그림 1" descr="logo.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF77A8FC-D8E7-48FC-93FA-D43CA54D8DFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF77A8FC-D8E7-48FC-93FA-D43CA54D8DFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1860,7 @@
         <xdr:cNvPr id="102" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC58BF2-FF71-4B94-9A3E-A4A67B3C7865}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECC58BF2-FF71-4B94-9A3E-A4A67B3C7865}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +1920,7 @@
         <xdr:cNvPr id="74" name="TextBox 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF52E415-6C92-49C4-9163-743F263CC30A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF52E415-6C92-49C4-9163-743F263CC30A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,7 +1987,7 @@
         <xdr:cNvPr id="75" name="TextBox 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4C4E63-817B-4F27-BFD0-A552DC8603B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB4C4E63-817B-4F27-BFD0-A552DC8603B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2054,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A598848-5959-485D-A2DA-CBB32B6EFA57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A598848-5959-485D-A2DA-CBB32B6EFA57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2130,7 @@
         <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C557F0B-58E0-481C-80F5-04044322BA8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C557F0B-58E0-481C-80F5-04044322BA8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2192,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF82D8E-2DBA-4087-BD87-FA4DC4DFC591}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FF82D8E-2DBA-4087-BD87-FA4DC4DFC591}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2259,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C21F4DB-43BC-494B-9694-808216E47103}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C21F4DB-43BC-494B-9694-808216E47103}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2326,7 @@
         <xdr:cNvPr id="9" name="그룹 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95211235-8398-4340-ABB5-5C901DABAD04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95211235-8398-4340-ABB5-5C901DABAD04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2345,7 @@
           <xdr:cNvPr id="10" name="이등변 삼각형 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C54DC41-CD34-417C-87C2-D395B65CC687}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C54DC41-CD34-417C-87C2-D395B65CC687}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2492,7 +2398,7 @@
           <xdr:cNvPr id="11" name="직사각형 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451FD80C-3326-4082-8A92-CA3D2FB64D03}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{451FD80C-3326-4082-8A92-CA3D2FB64D03}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2561,7 +2467,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8823621-26C7-4DFE-A7E7-F686C4A96D41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8823621-26C7-4DFE-A7E7-F686C4A96D41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,6 +2519,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -2666,7 +2583,7 @@
         <xdr:cNvPr id="15" name="다이아몬드 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B384C941-548D-4379-9696-AC92AD30D4F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B384C941-548D-4379-9696-AC92AD30D4F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2746,7 +2663,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDCA45D-1970-46D7-9DFB-EEB1E97CE0D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CDCA45D-1970-46D7-9DFB-EEB1E97CE0D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2722,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4C2560-D57C-4467-824A-955262BA5139}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA4C2560-D57C-4467-824A-955262BA5139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2881,7 +2798,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F835E7E-DC74-4E59-8A46-35CFD37A460D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F835E7E-DC74-4E59-8A46-35CFD37A460D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2940,7 +2857,7 @@
         <xdr:cNvPr id="23" name="직선 화살표 연결선 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167256D7-49EE-4D1F-BBDF-43474D881BFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{167256D7-49EE-4D1F-BBDF-43474D881BFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,7 +2917,7 @@
         <xdr:cNvPr id="24" name="TextBox 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D65767A-8320-4DDA-A778-253E729BDF17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D65767A-8320-4DDA-A778-253E729BDF17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3084,7 +3001,7 @@
         <xdr:cNvPr id="25" name="TextBox 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C752C9-99D1-44FB-B218-89B80F4EB8A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40C752C9-99D1-44FB-B218-89B80F4EB8A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3137,6 +3054,17 @@
             </a:rPr>
             <a:t>管理者用</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -3157,6 +3085,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>図書リスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -3210,7 +3149,7 @@
         <xdr:cNvPr id="35" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8C8102-EDDA-456B-873D-52CDA1678B47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD8C8102-EDDA-456B-873D-52CDA1678B47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,7 +3209,7 @@
         <xdr:cNvPr id="36" name="TextBox 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA922D62-B64D-4EAF-9A64-B1AD9B3552CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA922D62-B64D-4EAF-9A64-B1AD9B3552CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3348,7 +3287,7 @@
         <xdr:cNvPr id="45" name="그룹 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D1E948-FB55-4B89-B538-7157DF39156F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02D1E948-FB55-4B89-B538-7157DF39156F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3367,7 +3306,7 @@
           <xdr:cNvPr id="46" name="이등변 삼각형 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3B951C-6188-43A2-AE66-909010389482}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A3B951C-6188-43A2-AE66-909010389482}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3420,7 +3359,7 @@
           <xdr:cNvPr id="47" name="직사각형 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D16ACE2-BC36-447E-A552-83EC8691BC3F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D16ACE2-BC36-447E-A552-83EC8691BC3F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3489,7 +3428,7 @@
         <xdr:cNvPr id="55" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27419C23-EF50-4580-8728-A91DC6904D2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27419C23-EF50-4580-8728-A91DC6904D2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3551,7 +3490,7 @@
         <xdr:cNvPr id="59" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BD38E9-7472-4E29-836F-DF0F932BB4F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57BD38E9-7472-4E29-836F-DF0F932BB4F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3610,7 +3549,7 @@
         <xdr:cNvPr id="63" name="TextBox 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679E0A85-4D68-468F-9D1C-7D1734F80751}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{679E0A85-4D68-468F-9D1C-7D1734F80751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3694,7 +3633,7 @@
         <xdr:cNvPr id="65" name="TextBox 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{865569C0-FD68-4B8B-B530-ED2338CA7177}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{865569C0-FD68-4B8B-B530-ED2338CA7177}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3770,7 +3709,7 @@
         <xdr:cNvPr id="70" name="다이아몬드 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5310FB01-F640-4ABB-84C7-292C8829D09D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5310FB01-F640-4ABB-84C7-292C8829D09D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3850,7 +3789,7 @@
         <xdr:cNvPr id="76" name="직선 화살표 연결선 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D578AE-06AF-4E2C-8E9B-D51BB8DD3CC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{21D578AE-06AF-4E2C-8E9B-D51BB8DD3CC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3909,7 +3848,7 @@
         <xdr:cNvPr id="81" name="직선 화살표 연결선 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E3D4B9-694C-491C-9A7D-F716F0971201}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39E3D4B9-694C-491C-9A7D-F716F0971201}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3969,7 +3908,7 @@
         <xdr:cNvPr id="82" name="TextBox 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C23656-3C62-4B39-9A08-81FEF57D85FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71C23656-3C62-4B39-9A08-81FEF57D85FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4021,6 +3960,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>図書リスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -4074,7 +4024,7 @@
         <xdr:cNvPr id="83" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1572643-2C77-487C-A3CD-5363181F69CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E1572643-2C77-487C-A3CD-5363181F69CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4134,7 +4084,7 @@
         <xdr:cNvPr id="84" name="TextBox 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4766F781-D9F2-4FA6-BE88-DC2420D7CF01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4766F781-D9F2-4FA6-BE88-DC2420D7CF01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4212,7 +4162,7 @@
         <xdr:cNvPr id="90" name="TextBox 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263A17D0-2CB3-47A6-9D79-0C1C841D0665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{263A17D0-2CB3-47A6-9D79-0C1C841D0665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4288,7 +4238,7 @@
         <xdr:cNvPr id="91" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A00722EE-58FB-4ECF-A04A-45C5A8591317}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A00722EE-58FB-4ECF-A04A-45C5A8591317}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4350,7 +4300,7 @@
         <xdr:cNvPr id="92" name="그룹 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDEB4BF7-7FF3-43EA-AD62-49137F6F62E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDEB4BF7-7FF3-43EA-AD62-49137F6F62E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4369,7 +4319,7 @@
           <xdr:cNvPr id="93" name="이등변 삼각형 92">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1FF30A-ABEF-453F-848C-B737755478F4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC1FF30A-ABEF-453F-848C-B737755478F4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4422,7 +4372,7 @@
           <xdr:cNvPr id="94" name="직사각형 93">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988BEA64-02E1-4FE0-8255-02B8B361EE6F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{988BEA64-02E1-4FE0-8255-02B8B361EE6F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4491,7 +4441,7 @@
         <xdr:cNvPr id="95" name="TextBox 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E61C54D5-528F-4DE6-BA93-F53612BCA57C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E61C54D5-528F-4DE6-BA93-F53612BCA57C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4543,6 +4493,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -4596,7 +4557,7 @@
         <xdr:cNvPr id="96" name="그룹 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6863911E-50C6-42D3-917D-FCCCCA2C79E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6863911E-50C6-42D3-917D-FCCCCA2C79E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4615,7 +4576,7 @@
           <xdr:cNvPr id="97" name="이등변 삼각형 96">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6C144D-F597-44B5-B54E-AF033A7DD88A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF6C144D-F597-44B5-B54E-AF033A7DD88A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4668,7 +4629,7 @@
           <xdr:cNvPr id="98" name="직사각형 97">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9854F26-BA2C-480E-AF00-906A8E74A727}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9854F26-BA2C-480E-AF00-906A8E74A727}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4737,7 +4698,7 @@
         <xdr:cNvPr id="99" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D48052-C278-4DC8-83CE-65E7D3B5C6DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07D48052-C278-4DC8-83CE-65E7D3B5C6DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4799,7 +4760,7 @@
         <xdr:cNvPr id="100" name="TextBox 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C98D8C-9109-4AF9-A9F1-91B190122A69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91C98D8C-9109-4AF9-A9F1-91B190122A69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4851,6 +4812,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>会員情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -4904,7 +4876,7 @@
         <xdr:cNvPr id="101" name="TextBox 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C170370-87B4-4EEB-9A18-E4B0010B7353}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C170370-87B4-4EEB-9A18-E4B0010B7353}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4996,7 +4968,7 @@
         <xdr:cNvPr id="131" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632F846A-34D3-406D-8D3A-DE15568E0DC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{632F846A-34D3-406D-8D3A-DE15568E0DC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5056,7 +5028,7 @@
         <xdr:cNvPr id="134" name="TextBox 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5346D56F-FE6E-46E8-9238-E13167701C48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5346D56F-FE6E-46E8-9238-E13167701C48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5160,7 +5132,7 @@
         <xdr:cNvPr id="136" name="그림 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4EE3BD-A496-49B7-BC49-4ADDD2B6AD50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B4EE3BD-A496-49B7-BC49-4ADDD2B6AD50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5204,7 +5176,7 @@
         <xdr:cNvPr id="137" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F789A482-5C95-4DC0-BDE4-C7DCBC8171A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F789A482-5C95-4DC0-BDE4-C7DCBC8171A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5266,7 +5238,7 @@
         <xdr:cNvPr id="140" name="TextBox 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22390978-585F-4E0A-8DFD-B1C44F08A740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22390978-585F-4E0A-8DFD-B1C44F08A740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5350,7 +5322,7 @@
         <xdr:cNvPr id="147" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69EF1964-F2BE-4219-A72D-1D2BEE5ECA96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69EF1964-F2BE-4219-A72D-1D2BEE5ECA96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5413,7 +5385,7 @@
         <xdr:cNvPr id="148" name="TextBox 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DB2667-57F8-404A-8C68-843A3C623A62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5DB2667-57F8-404A-8C68-843A3C623A62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5489,7 +5461,7 @@
         <xdr:cNvPr id="149" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9E393BE-63E1-4D63-94C5-6054BDD2FC8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9E393BE-63E1-4D63-94C5-6054BDD2FC8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5551,7 +5523,7 @@
         <xdr:cNvPr id="153" name="TextBox 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E959902D-86C3-4CC5-9E56-2E4CC37D0938}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E959902D-86C3-4CC5-9E56-2E4CC37D0938}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5603,6 +5575,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>会員情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -5656,7 +5639,7 @@
         <xdr:cNvPr id="154" name="그룹 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CA32E1-E593-4F0C-B836-16EBE5B67CDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85CA32E1-E593-4F0C-B836-16EBE5B67CDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5675,7 +5658,7 @@
           <xdr:cNvPr id="155" name="이등변 삼각형 154">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3158ED-0509-4465-9622-5ACFD34236FA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA3158ED-0509-4465-9622-5ACFD34236FA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5728,7 +5711,7 @@
           <xdr:cNvPr id="156" name="직사각형 155">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F3502F-0B6C-4B1E-9530-0D716539B602}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0F3502F-0B6C-4B1E-9530-0D716539B602}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5797,7 +5780,7 @@
         <xdr:cNvPr id="157" name="TextBox 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C3107D-66BE-4DEB-89B2-77C98CECADDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93C3107D-66BE-4DEB-89B2-77C98CECADDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5873,7 +5856,7 @@
         <xdr:cNvPr id="161" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1302E30E-D971-4745-AABA-2158127F3C65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1302E30E-D971-4745-AABA-2158127F3C65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5933,7 +5916,7 @@
         <xdr:cNvPr id="168" name="TextBox 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFB8921-A1E5-45D2-8C4E-8665392362D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0CFB8921-A1E5-45D2-8C4E-8665392362D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5985,6 +5968,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>退会確認</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -6038,7 +6032,7 @@
         <xdr:cNvPr id="175" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B72B68-9A5D-4A43-8B11-0F30599BACB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51B72B68-9A5D-4A43-8B11-0F30599BACB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6098,7 +6092,7 @@
         <xdr:cNvPr id="176" name="TextBox 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB7D047-D947-418D-9EC0-9A9525DD2E4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AB7D047-D947-418D-9EC0-9A9525DD2E4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6174,7 +6168,7 @@
         <xdr:cNvPr id="177" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCCD223-A69F-4FEB-B802-D40412B211ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FCCD223-A69F-4FEB-B802-D40412B211ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6236,7 +6230,7 @@
         <xdr:cNvPr id="178" name="그룹 177">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBEC5772-93C4-48D9-9BB2-422A0C4AC03C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FBEC5772-93C4-48D9-9BB2-422A0C4AC03C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6255,7 +6249,7 @@
           <xdr:cNvPr id="179" name="이등변 삼각형 178">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A182D2CE-038F-44D6-B839-4240F084D9CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A182D2CE-038F-44D6-B839-4240F084D9CA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6308,7 +6302,7 @@
           <xdr:cNvPr id="180" name="직사각형 179">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C676A35-B959-407B-8909-0F6EE5641F5B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C676A35-B959-407B-8909-0F6EE5641F5B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6377,7 +6371,7 @@
         <xdr:cNvPr id="181" name="TextBox 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37DCD04-294B-4E6D-830E-D8951D4E5736}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B37DCD04-294B-4E6D-830E-D8951D4E5736}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6429,6 +6423,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -6482,7 +6487,7 @@
         <xdr:cNvPr id="182" name="그룹 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682DA3A3-523C-4653-8964-693427E577C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{682DA3A3-523C-4653-8964-693427E577C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6501,7 +6506,7 @@
           <xdr:cNvPr id="183" name="이등변 삼각형 182">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88BD616F-4391-44EA-A4AF-9F47F76ADA75}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88BD616F-4391-44EA-A4AF-9F47F76ADA75}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6554,7 +6559,7 @@
           <xdr:cNvPr id="184" name="직사각형 183">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B0498B4-82D0-4875-98DE-7A0DA30D6709}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B0498B4-82D0-4875-98DE-7A0DA30D6709}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6623,7 +6628,7 @@
         <xdr:cNvPr id="185" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A371B3F4-FA9D-4299-99A1-E2490C567AA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A371B3F4-FA9D-4299-99A1-E2490C567AA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6685,7 +6690,7 @@
         <xdr:cNvPr id="186" name="TextBox 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A168417-7288-4BA9-83AA-12D89DDF3430}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A168417-7288-4BA9-83AA-12D89DDF3430}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6737,6 +6742,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>会員情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -6790,7 +6806,7 @@
         <xdr:cNvPr id="187" name="TextBox 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC7ABA6-2039-4029-AA55-55A812994F89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBC7ABA6-2039-4029-AA55-55A812994F89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6866,7 +6882,7 @@
         <xdr:cNvPr id="188" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA81C71F-8822-46AF-9957-EBECA92E6958}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA81C71F-8822-46AF-9957-EBECA92E6958}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6926,7 +6942,7 @@
         <xdr:cNvPr id="189" name="TextBox 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCD35D5-A1E1-4435-8DC9-FB742434F2B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FCD35D5-A1E1-4435-8DC9-FB742434F2B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7001,7 +7017,7 @@
         <xdr:cNvPr id="190" name="그림 189">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0D332F-E724-48B5-B0AB-F80D1BEF516F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ED0D332F-E724-48B5-B0AB-F80D1BEF516F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7045,7 +7061,7 @@
         <xdr:cNvPr id="192" name="TextBox 191">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2874C10-84AC-4166-8123-40349F2D8EAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2874C10-84AC-4166-8123-40349F2D8EAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7129,7 +7145,7 @@
         <xdr:cNvPr id="194" name="TextBox 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80090E47-37F3-43FA-AF1C-12CAF0F85DD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80090E47-37F3-43FA-AF1C-12CAF0F85DD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7213,7 +7229,7 @@
         <xdr:cNvPr id="195" name="TextBox 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5B4C5C-BBE2-47EC-8809-5C3D1647326E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A5B4C5C-BBE2-47EC-8809-5C3D1647326E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7265,6 +7281,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>郵便番号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -7318,7 +7345,7 @@
         <xdr:cNvPr id="197" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F78627-844A-4A17-BFAF-4CC313092F2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41F78627-844A-4A17-BFAF-4CC313092F2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7380,7 +7407,7 @@
         <xdr:cNvPr id="200" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1705D3D-0AAF-4006-9A57-550574933AB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C1705D3D-0AAF-4006-9A57-550574933AB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7442,7 +7469,7 @@
         <xdr:cNvPr id="206" name="TextBox 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3483BA-3185-4973-85F6-A3B27F08BBE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A3483BA-3185-4973-85F6-A3B27F08BBE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7518,7 +7545,7 @@
         <xdr:cNvPr id="207" name="TextBox 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79D9FAB-F69F-4855-A525-86866039081A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A79D9FAB-F69F-4855-A525-86866039081A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7594,7 +7621,7 @@
         <xdr:cNvPr id="213" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8446249B-544A-4D22-BFDE-59A4E1CCEE50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8446249B-544A-4D22-BFDE-59A4E1CCEE50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7656,7 +7683,7 @@
         <xdr:cNvPr id="226" name="TextBox 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC1D429-3455-43C2-B541-AC99C5BCA409}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FC1D429-3455-43C2-B541-AC99C5BCA409}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7731,7 +7758,7 @@
         <xdr:cNvPr id="227" name="그림 226">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA465863-419A-4065-A4C7-9A54397687CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA465863-419A-4065-A4C7-9A54397687CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7775,7 +7802,7 @@
         <xdr:cNvPr id="228" name="TextBox 227">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17906855-5923-4939-9D8B-A1EE2AC476B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17906855-5923-4939-9D8B-A1EE2AC476B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7859,7 +7886,7 @@
         <xdr:cNvPr id="229" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95693DF-6E06-42B3-A6C8-23FE0DEAEFF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B95693DF-6E06-42B3-A6C8-23FE0DEAEFF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7921,7 +7948,7 @@
         <xdr:cNvPr id="233" name="TextBox 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C29E3D7-035A-4CCD-957F-85F7A4008F63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C29E3D7-035A-4CCD-957F-85F7A4008F63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7986,6 +8013,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>完了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -8041,7 +8080,7 @@
         <xdr:cNvPr id="234" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC56E63-20CE-43D9-B132-17ECA40A6DD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CC56E63-20CE-43D9-B132-17ECA40A6DD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8101,7 +8140,7 @@
         <xdr:cNvPr id="237" name="그림 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD585AA-C1D0-4BFC-8FB2-9B745C0DC76B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAD585AA-C1D0-4BFC-8FB2-9B745C0DC76B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8145,7 +8184,7 @@
         <xdr:cNvPr id="238" name="TextBox 237">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEE98CD-D071-4DA2-B02A-0CD7A9C912D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7BEE98CD-D071-4DA2-B02A-0CD7A9C912D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8229,7 +8268,7 @@
         <xdr:cNvPr id="239" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409AED5D-46F3-428F-94B2-C0E80F636316}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{409AED5D-46F3-428F-94B2-C0E80F636316}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8294,7 +8333,7 @@
         <xdr:cNvPr id="134" name="TextBox 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD680D3-2770-4EF1-90F0-1CF99D34F874}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FD680D3-2770-4EF1-90F0-1CF99D34F874}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8370,7 +8409,7 @@
         <xdr:cNvPr id="12" name="직선 화살표 연결선 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0005DDF7-6F60-4583-AF92-4365AF647998}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0005DDF7-6F60-4583-AF92-4365AF647998}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8429,7 +8468,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D342C71-998A-4E9E-BDA2-D8AEF681A90F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D342C71-998A-4E9E-BDA2-D8AEF681A90F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8504,7 +8543,7 @@
         <xdr:cNvPr id="55" name="TextBox 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3ABA4CE-57C4-41EF-97AC-FAE4AF13A2FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C3ABA4CE-57C4-41EF-97AC-FAE4AF13A2FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8571,7 +8610,7 @@
         <xdr:cNvPr id="56" name="TextBox 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CF88A9-ACB9-42D3-B263-511CF1B0C0E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86CF88A9-ACB9-42D3-B263-511CF1B0C0E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8640,7 +8679,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44967DA-F211-4175-AE45-86E7A33038CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D44967DA-F211-4175-AE45-86E7A33038CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8707,7 +8746,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9083D222-5BF1-4ECF-85A8-10FC6B910596}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9083D222-5BF1-4ECF-85A8-10FC6B910596}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8776,7 +8815,7 @@
         <xdr:cNvPr id="5" name="그룹 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E42926-D151-4148-AB7A-72D3D0D7E60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32E42926-D151-4148-AB7A-72D3D0D7E60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8795,7 +8834,7 @@
           <xdr:cNvPr id="4" name="이등변 삼각형 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0F3EEA-4299-4005-B6FD-F24F083B9CD4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF0F3EEA-4299-4005-B6FD-F24F083B9CD4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8848,7 +8887,7 @@
           <xdr:cNvPr id="3" name="직사각형 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD733F3-F37A-48B5-8F35-BEE2A19C4722}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFD733F3-F37A-48B5-8F35-BEE2A19C4722}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8917,7 +8956,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42CB7A3-DE83-43ED-AAD5-C1CB7C586867}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A42CB7A3-DE83-43ED-AAD5-C1CB7C586867}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8962,6 +9001,10 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>図書リスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -8994,7 +9037,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9C361A-4683-4D3E-95F7-B5F965AA6CB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF9C361A-4683-4D3E-95F7-B5F965AA6CB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9046,6 +9089,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>図書詳細</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -9099,7 +9153,7 @@
         <xdr:cNvPr id="11" name="직선 화살표 연결선 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A545F05-0635-4929-BF66-2F5170379F60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A545F05-0635-4929-BF66-2F5170379F60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9158,7 +9212,7 @@
         <xdr:cNvPr id="15" name="다이아몬드 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DEC529-5282-4F63-9643-BC39C50C4092}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9DEC529-5282-4F63-9643-BC39C50C4092}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9238,7 +9292,7 @@
         <xdr:cNvPr id="16" name="직선 화살표 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F78721-A0C9-4F38-996F-452A5B27DAFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40F78721-A0C9-4F38-996F-452A5B27DAFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9297,7 +9351,7 @@
         <xdr:cNvPr id="23" name="TextBox 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5BA64AC-370D-45D3-BBC4-029CB4E5B3F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5BA64AC-370D-45D3-BBC4-029CB4E5B3F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9372,7 +9426,7 @@
         <xdr:cNvPr id="51" name="다이아몬드 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F647AA-7CD5-4075-8E23-84B60E1209EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2F647AA-7CD5-4075-8E23-84B60E1209EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9452,7 +9506,7 @@
         <xdr:cNvPr id="52" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34ADC887-60E4-4408-9BF6-07AC8DB10A24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34ADC887-60E4-4408-9BF6-07AC8DB10A24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9511,7 +9565,7 @@
         <xdr:cNvPr id="57" name="TextBox 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DBADFC-27DC-4EAD-98E2-085C41F6AC95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9DBADFC-27DC-4EAD-98E2-085C41F6AC95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9556,6 +9610,10 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -9588,7 +9646,7 @@
         <xdr:cNvPr id="63" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4467C71-2581-4D38-BCB6-E402A086E91B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4467C71-2581-4D38-BCB6-E402A086E91B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9647,7 +9705,7 @@
         <xdr:cNvPr id="66" name="직선 화살표 연결선 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B1B9E6-0BD6-4798-B658-D5529BDBD219}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1B1B9E6-0BD6-4798-B658-D5529BDBD219}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9706,7 +9764,7 @@
         <xdr:cNvPr id="69" name="직선 화살표 연결선 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649BBB38-9225-482F-8375-3CD799A2F26F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{649BBB38-9225-482F-8375-3CD799A2F26F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9765,7 +9823,7 @@
         <xdr:cNvPr id="74" name="TextBox 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB17DE77-FD30-4DEF-AF9D-BA7CB54F5974}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB17DE77-FD30-4DEF-AF9D-BA7CB54F5974}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9849,7 +9907,7 @@
         <xdr:cNvPr id="77" name="TextBox 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A441FFA9-42F6-4FB6-9C4B-07AB6DE3BE43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A441FFA9-42F6-4FB6-9C4B-07AB6DE3BE43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9901,6 +9959,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>注文詳細</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -9954,7 +10023,7 @@
         <xdr:cNvPr id="90" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57379C2E-6055-4051-9FC4-25C698A6B892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57379C2E-6055-4051-9FC4-25C698A6B892}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10013,7 +10082,7 @@
         <xdr:cNvPr id="101" name="TextBox 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2A19A0-8AA8-45FB-A217-8BC6A87BC236}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B2A19A0-8AA8-45FB-A217-8BC6A87BC236}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10089,7 +10158,7 @@
         <xdr:cNvPr id="103" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D66726B-4D7F-411E-A78A-B11FCE013D14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D66726B-4D7F-411E-A78A-B11FCE013D14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10148,7 +10217,7 @@
         <xdr:cNvPr id="106" name="TextBox 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A4BAD1-4AEE-4EC8-B363-605DAC0C6A63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8A4BAD1-4AEE-4EC8-B363-605DAC0C6A63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10224,7 +10293,7 @@
         <xdr:cNvPr id="116" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E0F05E-E507-4A39-A39D-E9B9493B159E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03E0F05E-E507-4A39-A39D-E9B9493B159E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10285,7 +10354,7 @@
         <xdr:cNvPr id="120" name="TextBox 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5668F5AE-74D9-4FCB-ABBB-18D622361C57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5668F5AE-74D9-4FCB-ABBB-18D622361C57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10361,7 +10430,7 @@
         <xdr:cNvPr id="121" name="TextBox 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09982C46-122F-4109-A4DF-A0252D43E225}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09982C46-122F-4109-A4DF-A0252D43E225}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10413,6 +10482,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>注文完了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -10466,7 +10546,7 @@
         <xdr:cNvPr id="122" name="직선 화살표 연결선 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D789691-43F8-4F70-B28D-97B969ACECDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D789691-43F8-4F70-B28D-97B969ACECDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10525,7 +10605,7 @@
         <xdr:cNvPr id="125" name="TextBox 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE11B73D-0050-4337-A53C-DE78D576B703}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE11B73D-0050-4337-A53C-DE78D576B703}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10601,7 +10681,7 @@
         <xdr:cNvPr id="129" name="직선 화살표 연결선 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B9BA19-483E-4DE5-BE87-B30EF8A4F80E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43B9BA19-483E-4DE5-BE87-B30EF8A4F80E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10659,7 +10739,7 @@
         <xdr:cNvPr id="133" name="TextBox 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B10E784-8525-495C-9681-0D15C4095237}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B10E784-8525-495C-9681-0D15C4095237}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10737,7 +10817,7 @@
         <xdr:cNvPr id="135" name="TextBox 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE4D4B8-603B-4198-A756-246E0F2C3962}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BE4D4B8-603B-4198-A756-246E0F2C3962}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10784,6 +10864,14 @@
               </a:solidFill>
             </a:rPr>
             <a:t>ヘッダーから</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900">
@@ -10828,7 +10916,7 @@
         <xdr:cNvPr id="136" name="그룹 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDF8225-729B-45CD-A0DA-48245C7DF3B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBDF8225-729B-45CD-A0DA-48245C7DF3B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10847,7 +10935,7 @@
           <xdr:cNvPr id="137" name="이등변 삼각형 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC9068C-607E-431F-971A-DF23A765479B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EC9068C-607E-431F-971A-DF23A765479B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10900,7 +10988,7 @@
           <xdr:cNvPr id="138" name="직사각형 137">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84FCB96-A2FB-47AC-B919-4C945EFEA54A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D84FCB96-A2FB-47AC-B919-4C945EFEA54A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10969,7 +11057,7 @@
         <xdr:cNvPr id="139" name="TextBox 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E65EE10-6A8E-4C5F-B961-1C48C4A37DDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E65EE10-6A8E-4C5F-B961-1C48C4A37DDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11014,6 +11102,10 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>注文履歴</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -11046,7 +11138,7 @@
         <xdr:cNvPr id="140" name="직선 화살표 연결선 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9C27D4-D4EF-4F9D-A7D7-C4E77BC059B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA9C27D4-D4EF-4F9D-A7D7-C4E77BC059B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11100,7 +11192,7 @@
         <xdr:cNvPr id="142" name="그림 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7FDA9F-A888-4BBC-8FCD-D21EC27CDEC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE7FDA9F-A888-4BBC-8FCD-D21EC27CDEC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11144,7 +11236,7 @@
         <xdr:cNvPr id="143" name="TextBox 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1519D5D3-5885-4F92-AF96-D99B818102E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1519D5D3-5885-4F92-AF96-D99B818102E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11228,7 +11320,7 @@
         <xdr:cNvPr id="144" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A5CBEE-2BD8-439A-9D5C-469F387360E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55A5CBEE-2BD8-439A-9D5C-469F387360E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11285,7 +11377,7 @@
         <xdr:cNvPr id="147" name="그림 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{815272DC-5912-4591-960C-0DA999F1A770}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{815272DC-5912-4591-960C-0DA999F1A770}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11329,7 +11421,7 @@
         <xdr:cNvPr id="149" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC0BCB2-E146-426C-937C-0A4FCD583FB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7BC0BCB2-E146-426C-937C-0A4FCD583FB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11391,7 +11483,7 @@
         <xdr:cNvPr id="151" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2F58E8-BE5F-4F2F-B6FA-59CF6B421710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B2F58E8-BE5F-4F2F-B6FA-59CF6B421710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11453,7 +11545,7 @@
         <xdr:cNvPr id="148" name="TextBox 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B6A2DE1-7068-4C50-B65C-691DD5AC4A14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B6A2DE1-7068-4C50-B65C-691DD5AC4A14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11532,7 +11624,7 @@
         <xdr:cNvPr id="155" name="그림 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D073FF-1D03-4987-8359-DC405C3D428C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8D073FF-1D03-4987-8359-DC405C3D428C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11576,7 +11668,7 @@
         <xdr:cNvPr id="156" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A688A0-065C-4B3D-AF82-189B4848E0EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0A688A0-065C-4B3D-AF82-189B4848E0EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11638,7 +11730,7 @@
         <xdr:cNvPr id="158" name="TextBox 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D56D7B-B989-4D91-A2E6-5D57F747FEAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05D56D7B-B989-4D91-A2E6-5D57F747FEAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11717,7 +11809,7 @@
         <xdr:cNvPr id="159" name="그림 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3869EEB-FF81-4FD8-938A-A89A377D1BB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3869EEB-FF81-4FD8-938A-A89A377D1BB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11761,7 +11853,7 @@
         <xdr:cNvPr id="160" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F46BD1D-F9DF-47B4-9524-C5D6ED85CBDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F46BD1D-F9DF-47B4-9524-C5D6ED85CBDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11821,7 +11913,7 @@
         <xdr:cNvPr id="161" name="TextBox 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571AE332-C773-4D56-9D86-FC25CF8A3EE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{571AE332-C773-4D56-9D86-FC25CF8A3EE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11900,7 +11992,7 @@
         <xdr:cNvPr id="165" name="그림 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C80EC1-A343-46B7-9E71-945FB78B8B36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41C80EC1-A343-46B7-9E71-945FB78B8B36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11944,7 +12036,7 @@
         <xdr:cNvPr id="166" name="TextBox 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD295C5D-7492-47E1-AF42-455CED071F09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD295C5D-7492-47E1-AF42-455CED071F09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12028,7 +12120,7 @@
         <xdr:cNvPr id="167" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF637C1-D134-40B3-9318-D07A81D97396}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DF637C1-D134-40B3-9318-D07A81D97396}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12095,7 +12187,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1A4D07-1C97-41E7-95C3-0C2E58581CB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D1A4D07-1C97-41E7-95C3-0C2E58581CB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12142,6 +12234,14 @@
               </a:solidFill>
             </a:rPr>
             <a:t>ログイン画面から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900">
@@ -12186,7 +12286,7 @@
         <xdr:cNvPr id="9" name="그룹 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678570A0-99BA-4AE7-8A94-803726AAD193}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{678570A0-99BA-4AE7-8A94-803726AAD193}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12205,7 +12305,7 @@
           <xdr:cNvPr id="10" name="이등변 삼각형 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D89EC7-2424-4FE5-9BAF-2A6EE8901F70}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49D89EC7-2424-4FE5-9BAF-2A6EE8901F70}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12258,7 +12358,7 @@
           <xdr:cNvPr id="11" name="직사각형 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BE60B8-FB78-4A19-82CF-AD35291CBFC9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00BE60B8-FB78-4A19-82CF-AD35291CBFC9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12327,7 +12427,7 @@
         <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CBE1E5F-B870-4146-A31B-EC8A90929B23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CBE1E5F-B870-4146-A31B-EC8A90929B23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12387,7 +12487,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DD2F7D-246D-4D5D-A179-9B77AF5A6383}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3DD2F7D-246D-4D5D-A179-9B77AF5A6383}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12463,7 +12563,7 @@
         <xdr:cNvPr id="17" name="직선 화살표 연결선 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8F26AC-C869-4424-BBB8-CBDB8B75E3B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3C8F26AC-C869-4424-BBB8-CBDB8B75E3B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12523,7 +12623,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B17AC67-986B-4B83-8518-F5B866075214}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B17AC67-986B-4B83-8518-F5B866075214}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12575,6 +12675,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>図書登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -12628,7 +12739,7 @@
         <xdr:cNvPr id="25" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A77E36-3092-42C3-BB69-8AB91F6E157C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20A77E36-3092-42C3-BB69-8AB91F6E157C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12690,7 +12801,7 @@
         <xdr:cNvPr id="99" name="그림 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8032480-0328-4C9B-8740-5F86CA7EC3C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8032480-0328-4C9B-8740-5F86CA7EC3C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12734,7 +12845,7 @@
         <xdr:cNvPr id="100" name="TextBox 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90206A5-D037-4610-936F-DB8B0A6B293F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A90206A5-D037-4610-936F-DB8B0A6B293F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12818,7 +12929,7 @@
         <xdr:cNvPr id="101" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3446EAE5-23CC-4CBF-918D-4621B37E1F8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3446EAE5-23CC-4CBF-918D-4621B37E1F8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12878,7 +12989,7 @@
         <xdr:cNvPr id="112" name="그림 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD72E828-A7B8-48E0-AED0-277E73ABD5DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD72E828-A7B8-48E0-AED0-277E73ABD5DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12922,7 +13033,7 @@
         <xdr:cNvPr id="113" name="TextBox 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD750A60-A232-4933-9C8C-538C5F036FF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD750A60-A232-4933-9C8C-538C5F036FF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13006,7 +13117,7 @@
         <xdr:cNvPr id="114" name="직선 화살표 연결선 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D212BD4-2DA2-4ED3-B8F1-46983BCA030E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D212BD4-2DA2-4ED3-B8F1-46983BCA030E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13066,7 +13177,7 @@
         <xdr:cNvPr id="121" name="TextBox 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F542518-C27A-435C-9F22-3965C22A9754}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F542518-C27A-435C-9F22-3965C22A9754}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13119,6 +13230,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>図書リスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
@@ -13174,7 +13297,7 @@
         <xdr:cNvPr id="125" name="TextBox 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEDAE51B-582D-4A15-8CC7-B22BAE761060}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EEDAE51B-582D-4A15-8CC7-B22BAE761060}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13239,6 +13362,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -13306,7 +13441,7 @@
         <xdr:cNvPr id="126" name="직선 화살표 연결선 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4F75FA-C047-4CFE-8003-EB27058658A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C4F75FA-C047-4CFE-8003-EB27058658A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13366,7 +13501,7 @@
         <xdr:cNvPr id="127" name="TextBox 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E195480-B4E4-4C84-BC9B-C874257A035E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E195480-B4E4-4C84-BC9B-C874257A035E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13442,7 +13577,7 @@
         <xdr:cNvPr id="130" name="TextBox 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35BE80FF-0D38-4A33-93EE-96F702437639}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35BE80FF-0D38-4A33-93EE-96F702437639}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13518,7 +13653,7 @@
         <xdr:cNvPr id="132" name="직선 화살표 연결선 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9AD645-607D-4C92-BB23-85BAB23507DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB9AD645-607D-4C92-BB23-85BAB23507DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13578,7 +13713,7 @@
         <xdr:cNvPr id="135" name="직선 화살표 연결선 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CFA9A8-511A-471E-98EB-018D375C5AA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6CFA9A8-511A-471E-98EB-018D375C5AA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13638,7 +13773,7 @@
         <xdr:cNvPr id="131" name="TextBox 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D8EAAE-56E4-4EDD-9B23-10D84D0E4948}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9D8EAAE-56E4-4EDD-9B23-10D84D0E4948}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13714,7 +13849,7 @@
         <xdr:cNvPr id="156" name="TextBox 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF8D626-BCED-406F-943E-9A1ACCD74229}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CAF8D626-BCED-406F-943E-9A1ACCD74229}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13782,7 +13917,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB922456-0C37-4720-BC5F-605375C71BF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB922456-0C37-4720-BC5F-605375C71BF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13835,6 +13970,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>図書リスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
@@ -13890,7 +14037,7 @@
         <xdr:cNvPr id="144" name="직선 화살표 연결선 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3830EE7-2E10-4520-B409-59435E9CE5E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3830EE7-2E10-4520-B409-59435E9CE5E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13952,7 +14099,7 @@
         <xdr:cNvPr id="161" name="직선 화살표 연결선 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B972874C-D638-4DDA-8907-BA1B60A3831E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B972874C-D638-4DDA-8907-BA1B60A3831E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14014,7 +14161,7 @@
         <xdr:cNvPr id="148" name="TextBox 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F991C24-A06D-4C5C-946E-F8C4BF47ABA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F991C24-A06D-4C5C-946E-F8C4BF47ABA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14095,7 +14242,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E4A54E-C4F7-40B5-AF21-72180B1B1BF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8E4A54E-C4F7-40B5-AF21-72180B1B1BF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14142,6 +14289,14 @@
               </a:solidFill>
             </a:rPr>
             <a:t>ログイン画面から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900">
@@ -14186,7 +14341,7 @@
         <xdr:cNvPr id="3" name="그룹 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E583D0A0-D202-44C4-A81D-012DAE94D67A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E583D0A0-D202-44C4-A81D-012DAE94D67A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14205,7 +14360,7 @@
           <xdr:cNvPr id="4" name="이등변 삼각형 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848340C8-26B0-46B9-8163-D19D916E05E1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{848340C8-26B0-46B9-8163-D19D916E05E1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14258,7 +14413,7 @@
           <xdr:cNvPr id="5" name="직사각형 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D844201-9579-480A-B25A-AD45FBD14211}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D844201-9579-480A-B25A-AD45FBD14211}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14327,7 +14482,7 @@
         <xdr:cNvPr id="10" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84ABB24-AEE0-44C3-851A-06A3D8BA8A99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B84ABB24-AEE0-44C3-851A-06A3D8BA8A99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14389,7 +14544,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518D3031-F3EA-4A7C-8972-EA8E8596CCEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{518D3031-F3EA-4A7C-8972-EA8E8596CCEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14433,7 +14588,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D8567C-9479-4398-8426-4E325219AD5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92D8567C-9479-4398-8426-4E325219AD5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14517,7 +14672,7 @@
         <xdr:cNvPr id="13" name="직선 화살표 연결선 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADC28EBD-1EC4-413B-BE8A-7A566E2F04CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ADC28EBD-1EC4-413B-BE8A-7A566E2F04CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14577,7 +14732,7 @@
         <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728945CA-D1DC-4606-B84D-72CF00A6AF48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{728945CA-D1DC-4606-B84D-72CF00A6AF48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14621,7 +14776,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9BE16B-81BD-4D17-B575-ED5A3CA32274}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F9BE16B-81BD-4D17-B575-ED5A3CA32274}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14705,7 +14860,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE17D67-781E-4DA9-8A96-867C738ED95D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FE17D67-781E-4DA9-8A96-867C738ED95D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14770,6 +14925,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>リスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
@@ -14825,7 +14992,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D91AEDB-9CB1-4692-8F62-FFD167C0409C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D91AEDB-9CB1-4692-8F62-FFD167C0409C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14878,6 +15045,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>注文情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -14945,7 +15124,7 @@
         <xdr:cNvPr id="19" name="직선 화살표 연결선 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC25FAB4-1563-4FD8-9180-DFD70D983289}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC25FAB4-1563-4FD8-9180-DFD70D983289}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15005,7 +15184,7 @@
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4651D5-753F-432E-BAE9-750AD2652833}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E4651D5-753F-432E-BAE9-750AD2652833}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15081,7 +15260,7 @@
         <xdr:cNvPr id="22" name="직선 화살표 연결선 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BBA223B-0DAF-474C-A4D3-734EEA3DEE33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BBA223B-0DAF-474C-A4D3-734EEA3DEE33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15141,7 +15320,7 @@
         <xdr:cNvPr id="23" name="직선 화살표 연결선 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE80E580-F473-4421-9C02-0831B835D332}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE80E580-F473-4421-9C02-0831B835D332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15201,7 +15380,7 @@
         <xdr:cNvPr id="24" name="TextBox 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCF19FA-FCB4-4A53-9318-6EA3C4C13673}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CCF19FA-FCB4-4A53-9318-6EA3C4C13673}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15277,7 +15456,7 @@
         <xdr:cNvPr id="26" name="TextBox 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F633D29-14BC-4CC8-9A46-9DDAFAFC3B54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F633D29-14BC-4CC8-9A46-9DDAFAFC3B54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15342,6 +15521,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>リスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
@@ -15397,7 +15588,7 @@
         <xdr:cNvPr id="27" name="직선 화살표 연결선 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C962E7-14FD-4499-9174-70098960B3C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17C962E7-14FD-4499-9174-70098960B3C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15457,7 +15648,7 @@
         <xdr:cNvPr id="28" name="직선 화살표 연결선 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46150FEC-E7D2-488A-BB1A-1EC809C1472A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46150FEC-E7D2-488A-BB1A-1EC809C1472A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15519,7 +15710,7 @@
         <xdr:cNvPr id="29" name="TextBox 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1682EB-AD2D-417D-9AF7-BDE61D7C1382}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF1682EB-AD2D-417D-9AF7-BDE61D7C1382}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15623,7 +15814,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -15675,7 +15866,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -15869,14 +16060,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400F2C1C-E5F1-4124-B9BE-349AE0F88833}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -16085,11 +16276,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28324B1B-C703-4142-A374-637E672B3D32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -16100,22 +16291,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="11" t="s">
@@ -16127,19 +16318,19 @@
       <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="12">
@@ -16169,7 +16360,7 @@
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="59"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
@@ -16201,7 +16392,7 @@
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
@@ -16361,23 +16552,23 @@
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="62"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="59"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="59"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
@@ -16393,23 +16584,23 @@
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="62"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="59"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="59"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
@@ -16457,17 +16648,17 @@
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="62"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="59"/>
     </row>
     <row r="24" spans="1:14" s="15" customFormat="1">
       <c r="A24" s="12"/>
@@ -16503,6 +16694,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D13:N13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="D3:N3"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="D5:N5"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="D12:N12"/>
     <mergeCell ref="D25:N25"/>
     <mergeCell ref="D14:N14"/>
     <mergeCell ref="D15:N15"/>
@@ -16515,18 +16718,6 @@
     <mergeCell ref="D22:N22"/>
     <mergeCell ref="D23:N23"/>
     <mergeCell ref="D24:N24"/>
-    <mergeCell ref="D13:N13"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="D3:N3"/>
-    <mergeCell ref="D4:N4"/>
-    <mergeCell ref="D5:N5"/>
-    <mergeCell ref="D6:N6"/>
-    <mergeCell ref="D7:N7"/>
-    <mergeCell ref="D8:N8"/>
-    <mergeCell ref="D9:N9"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D11:N11"/>
-    <mergeCell ref="D12:N12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16535,8 +16726,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE7001B-C0C5-494C-94D3-03E943A0F4B4}">
-  <dimension ref="B1:J130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I130"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -16553,18 +16744,18 @@
     <col min="9" max="9" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:9">
       <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>27</v>
+      <c r="D2" s="70" t="s">
+        <v>25</v>
       </c>
-      <c r="E2" s="64"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="18" t="s">
         <v>17</v>
       </c>
@@ -16575,1484 +16766,1499 @@
         <v>18</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:9">
       <c r="B3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="24" t="s">
-        <v>22</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B4" s="28" t="s">
-        <v>24</v>
+      <c r="D4" s="74" t="s">
+        <v>33</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="30"/>
       <c r="G4" s="31"/>
       <c r="H4" s="32"/>
       <c r="I4" s="33"/>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="69" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="2:9" ht="27" customHeight="1">
+      <c r="B7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71" t="s">
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="85" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="27" customHeight="1">
-      <c r="B7" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="72"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="79"/>
       <c r="E8" s="80"/>
       <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65"/>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="65"/>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="65"/>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="35"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="65"/>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="35"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="35"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="35"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="35"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="35"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="35"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="35"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="35"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="65"/>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="35"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="35"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="65"/>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="35"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="65"/>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="35"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="65"/>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="35"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="D35" s="63"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="65"/>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="35"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="65"/>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="35"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="65"/>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="35"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="65"/>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="35"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="65"/>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="35"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="65"/>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="35"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="65"/>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="35"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="65"/>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="35"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="D43" s="63"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="65"/>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="D44" s="63"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="65"/>
+    </row>
+    <row r="45" spans="2:9">
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="36"/>
-    </row>
-    <row r="46" spans="2:10" ht="18.75">
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="68"/>
+    </row>
+    <row r="46" spans="2:9" ht="18.75">
       <c r="B46" s="35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C46" s="35"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="35"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="D46" s="63"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="65"/>
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="35"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="D47" s="63"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="65"/>
+    </row>
+    <row r="48" spans="2:9">
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="35"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="D48" s="63"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="65"/>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="35"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="D49" s="63"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="65"/>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="35"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="D50" s="63"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="65"/>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="35"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="D51" s="63"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="65"/>
+    </row>
+    <row r="52" spans="2:9">
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="35"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="D52" s="63"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="65"/>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="D53" s="63"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="65"/>
+    </row>
+    <row r="54" spans="2:9">
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="35"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="D54" s="63"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="65"/>
+    </row>
+    <row r="55" spans="2:9">
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="35"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="D55" s="63"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="65"/>
+    </row>
+    <row r="56" spans="2:9">
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="35"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="D56" s="63"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="65"/>
+    </row>
+    <row r="57" spans="2:9">
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="35"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="D57" s="63"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="65"/>
+    </row>
+    <row r="58" spans="2:9">
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="35"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="D58" s="63"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="65"/>
+    </row>
+    <row r="59" spans="2:9">
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="35"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="D59" s="63"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="65"/>
+    </row>
+    <row r="60" spans="2:9">
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="35"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="D60" s="63"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="65"/>
+    </row>
+    <row r="61" spans="2:9">
       <c r="B61" s="35"/>
       <c r="C61" s="35"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="35"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="D61" s="63"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="65"/>
+    </row>
+    <row r="62" spans="2:9">
       <c r="B62" s="35"/>
       <c r="C62" s="35"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="84"/>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="D62" s="63"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="65"/>
+    </row>
+    <row r="63" spans="2:9">
       <c r="B63" s="35"/>
       <c r="C63" s="35"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="35"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="D63" s="63"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="65"/>
+    </row>
+    <row r="64" spans="2:9">
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="35"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="D64" s="63"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="65"/>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65" s="35"/>
       <c r="C65" s="35"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="84"/>
-      <c r="J65" s="35"/>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="D65" s="63"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="65"/>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66" s="35"/>
       <c r="C66" s="35"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="84"/>
-      <c r="J66" s="35"/>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="D66" s="63"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="65"/>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67" s="35"/>
       <c r="C67" s="35"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="84"/>
-      <c r="J67" s="35"/>
-    </row>
-    <row r="68" spans="2:10">
+      <c r="D67" s="63"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="65"/>
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68" s="35"/>
       <c r="C68" s="35"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="35"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="D68" s="63"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="65"/>
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69" s="35"/>
       <c r="C69" s="35"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="82"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="35"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="D69" s="63"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="65"/>
+    </row>
+    <row r="70" spans="2:9">
       <c r="B70" s="35"/>
       <c r="C70" s="35"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="82"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="35"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="D70" s="63"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="65"/>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71" s="35"/>
       <c r="C71" s="35"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="82"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="D71" s="63"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="65"/>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72" s="35"/>
       <c r="C72" s="35"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="83"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="84"/>
-      <c r="J72" s="35"/>
-    </row>
-    <row r="73" spans="2:10">
+      <c r="D72" s="63"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="65"/>
+    </row>
+    <row r="73" spans="2:9">
       <c r="B73" s="35"/>
       <c r="C73" s="35"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="84"/>
-      <c r="J73" s="35"/>
-    </row>
-    <row r="74" spans="2:10">
+      <c r="D73" s="63"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="65"/>
+    </row>
+    <row r="74" spans="2:9">
       <c r="B74" s="35"/>
       <c r="C74" s="35"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="82"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="84"/>
-      <c r="J74" s="35"/>
-    </row>
-    <row r="75" spans="2:10">
+      <c r="D74" s="63"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="65"/>
+    </row>
+    <row r="75" spans="2:9">
       <c r="B75" s="36"/>
       <c r="C75" s="36"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="88"/>
-      <c r="G75" s="86"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="88"/>
-      <c r="J75" s="36"/>
-    </row>
-    <row r="76" spans="2:10" ht="18.75">
+      <c r="D75" s="66"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="68"/>
+    </row>
+    <row r="76" spans="2:9" ht="18.75">
       <c r="B76" s="38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C76" s="35"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="82"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="84"/>
-      <c r="J76" s="35"/>
-    </row>
-    <row r="77" spans="2:10">
+      <c r="D76" s="63"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="65"/>
+    </row>
+    <row r="77" spans="2:9">
       <c r="B77" s="35"/>
       <c r="C77" s="35"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="82"/>
-      <c r="H77" s="83"/>
-      <c r="I77" s="84"/>
-      <c r="J77" s="35"/>
-    </row>
-    <row r="78" spans="2:10">
+      <c r="D77" s="63"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="65"/>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78" s="35"/>
       <c r="C78" s="35"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="82"/>
-      <c r="H78" s="83"/>
-      <c r="I78" s="84"/>
-      <c r="J78" s="35"/>
-    </row>
-    <row r="79" spans="2:10">
+      <c r="D78" s="63"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
+    </row>
+    <row r="79" spans="2:9">
       <c r="B79" s="35"/>
       <c r="C79" s="35"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="82"/>
-      <c r="H79" s="83"/>
-      <c r="I79" s="84"/>
-      <c r="J79" s="35"/>
-    </row>
-    <row r="80" spans="2:10">
+      <c r="D79" s="63"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="65"/>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="83"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="82"/>
-      <c r="H80" s="83"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="35"/>
-    </row>
-    <row r="81" spans="2:10">
+      <c r="D80" s="63"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="65"/>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81" s="35"/>
       <c r="C81" s="35"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="83"/>
-      <c r="F81" s="84"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="83"/>
-      <c r="I81" s="84"/>
-      <c r="J81" s="35"/>
-    </row>
-    <row r="82" spans="2:10">
+      <c r="D81" s="63"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="65"/>
+    </row>
+    <row r="82" spans="2:9">
       <c r="B82" s="35"/>
       <c r="C82" s="35"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="82"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="84"/>
-      <c r="J82" s="35"/>
-    </row>
-    <row r="83" spans="2:10">
+      <c r="D82" s="63"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="65"/>
+    </row>
+    <row r="83" spans="2:9">
       <c r="B83" s="35"/>
       <c r="C83" s="35"/>
-      <c r="D83" s="82"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="84"/>
-      <c r="G83" s="82"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="84"/>
-      <c r="J83" s="35"/>
-    </row>
-    <row r="84" spans="2:10">
+      <c r="D83" s="63"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="65"/>
+    </row>
+    <row r="84" spans="2:9">
       <c r="B84" s="35"/>
       <c r="C84" s="35"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="84"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="83"/>
-      <c r="I84" s="84"/>
-      <c r="J84" s="35"/>
-    </row>
-    <row r="85" spans="2:10">
+      <c r="D84" s="63"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="65"/>
+    </row>
+    <row r="85" spans="2:9">
       <c r="B85" s="35"/>
       <c r="C85" s="35"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="84"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="83"/>
-      <c r="I85" s="84"/>
-      <c r="J85" s="35"/>
-    </row>
-    <row r="86" spans="2:10">
+      <c r="D85" s="63"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="65"/>
+    </row>
+    <row r="86" spans="2:9">
       <c r="B86" s="35"/>
       <c r="C86" s="35"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="84"/>
-      <c r="G86" s="82"/>
-      <c r="H86" s="83"/>
-      <c r="I86" s="84"/>
-      <c r="J86" s="35"/>
-    </row>
-    <row r="87" spans="2:10">
+      <c r="D86" s="63"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="65"/>
+    </row>
+    <row r="87" spans="2:9">
       <c r="B87" s="35"/>
       <c r="C87" s="35"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="84"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="83"/>
-      <c r="I87" s="84"/>
-      <c r="J87" s="35"/>
-    </row>
-    <row r="88" spans="2:10">
+      <c r="D87" s="63"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="65"/>
+    </row>
+    <row r="88" spans="2:9">
       <c r="B88" s="35"/>
       <c r="C88" s="35"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="84"/>
-      <c r="G88" s="82"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="84"/>
-      <c r="J88" s="35"/>
-    </row>
-    <row r="89" spans="2:10">
+      <c r="D88" s="63"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="65"/>
+    </row>
+    <row r="89" spans="2:9">
       <c r="B89" s="35"/>
       <c r="C89" s="35"/>
-      <c r="D89" s="82"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="84"/>
-      <c r="G89" s="82"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="84"/>
-      <c r="J89" s="35"/>
-    </row>
-    <row r="90" spans="2:10">
+      <c r="D89" s="63"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="65"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="65"/>
+    </row>
+    <row r="90" spans="2:9">
       <c r="B90" s="35"/>
       <c r="C90" s="35"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="84"/>
-      <c r="G90" s="82"/>
-      <c r="H90" s="83"/>
-      <c r="I90" s="84"/>
-      <c r="J90" s="35"/>
-    </row>
-    <row r="91" spans="2:10">
+      <c r="D90" s="63"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="65"/>
+    </row>
+    <row r="91" spans="2:9">
       <c r="B91" s="35"/>
       <c r="C91" s="35"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="84"/>
-      <c r="G91" s="82"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="84"/>
-      <c r="J91" s="35"/>
-    </row>
-    <row r="92" spans="2:10">
+      <c r="D91" s="63"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="65"/>
+    </row>
+    <row r="92" spans="2:9">
       <c r="B92" s="35"/>
       <c r="C92" s="35"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="84"/>
-      <c r="G92" s="82"/>
-      <c r="H92" s="83"/>
-      <c r="I92" s="84"/>
-      <c r="J92" s="35"/>
-    </row>
-    <row r="93" spans="2:10">
+      <c r="D92" s="63"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="63"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="65"/>
+    </row>
+    <row r="93" spans="2:9">
       <c r="B93" s="35"/>
       <c r="C93" s="35"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="84"/>
-      <c r="G93" s="82"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="84"/>
-      <c r="J93" s="35"/>
-    </row>
-    <row r="94" spans="2:10">
+      <c r="D93" s="63"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="63"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="65"/>
+    </row>
+    <row r="94" spans="2:9">
       <c r="B94" s="35"/>
       <c r="C94" s="35"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="84"/>
-      <c r="G94" s="82"/>
-      <c r="H94" s="83"/>
-      <c r="I94" s="84"/>
-      <c r="J94" s="35"/>
-    </row>
-    <row r="95" spans="2:10">
+      <c r="D94" s="63"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="65"/>
+    </row>
+    <row r="95" spans="2:9">
       <c r="B95" s="35"/>
       <c r="C95" s="35"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="84"/>
-      <c r="G95" s="82"/>
-      <c r="H95" s="83"/>
-      <c r="I95" s="84"/>
-      <c r="J95" s="35"/>
-    </row>
-    <row r="96" spans="2:10">
+      <c r="D95" s="63"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="65"/>
+    </row>
+    <row r="96" spans="2:9">
       <c r="B96" s="35"/>
       <c r="C96" s="35"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="84"/>
-      <c r="G96" s="82"/>
-      <c r="H96" s="83"/>
-      <c r="I96" s="84"/>
-      <c r="J96" s="35"/>
-    </row>
-    <row r="97" spans="2:10">
+      <c r="D96" s="63"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="63"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="65"/>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97" s="35"/>
       <c r="C97" s="35"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="84"/>
-      <c r="G97" s="82"/>
-      <c r="H97" s="83"/>
-      <c r="I97" s="84"/>
-      <c r="J97" s="35"/>
-    </row>
-    <row r="98" spans="2:10">
+      <c r="D97" s="63"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="65"/>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" s="35"/>
       <c r="C98" s="35"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="84"/>
-      <c r="G98" s="82"/>
-      <c r="H98" s="83"/>
-      <c r="I98" s="84"/>
-      <c r="J98" s="35"/>
-    </row>
-    <row r="99" spans="2:10">
+      <c r="D98" s="63"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="63"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="65"/>
+    </row>
+    <row r="99" spans="2:9">
       <c r="B99" s="35"/>
       <c r="C99" s="35"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="84"/>
-      <c r="G99" s="82"/>
-      <c r="H99" s="83"/>
-      <c r="I99" s="84"/>
-      <c r="J99" s="35"/>
-    </row>
-    <row r="100" spans="2:10">
+      <c r="D99" s="63"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="65"/>
+    </row>
+    <row r="100" spans="2:9">
       <c r="B100" s="35"/>
       <c r="C100" s="35"/>
-      <c r="D100" s="82"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="84"/>
-      <c r="G100" s="82"/>
-      <c r="H100" s="83"/>
-      <c r="I100" s="84"/>
-      <c r="J100" s="35"/>
-    </row>
-    <row r="101" spans="2:10">
+      <c r="D100" s="63"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="63"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="65"/>
+    </row>
+    <row r="101" spans="2:9">
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="87"/>
-      <c r="F101" s="88"/>
-      <c r="G101" s="86"/>
-      <c r="H101" s="87"/>
-      <c r="I101" s="88"/>
-      <c r="J101" s="36"/>
-    </row>
-    <row r="102" spans="2:10" ht="18.75">
+      <c r="D101" s="66"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="68"/>
+    </row>
+    <row r="102" spans="2:9" ht="18.75">
       <c r="B102" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C102" s="35"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="83"/>
-      <c r="F102" s="84"/>
-      <c r="G102" s="82"/>
-      <c r="H102" s="83"/>
-      <c r="I102" s="84"/>
-      <c r="J102" s="35"/>
-    </row>
-    <row r="103" spans="2:10">
+      <c r="D102" s="63"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="63"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="65"/>
+    </row>
+    <row r="103" spans="2:9">
       <c r="B103" s="35"/>
       <c r="C103" s="35"/>
-      <c r="D103" s="82"/>
-      <c r="E103" s="83"/>
-      <c r="F103" s="84"/>
-      <c r="G103" s="82"/>
-      <c r="H103" s="83"/>
-      <c r="I103" s="84"/>
-      <c r="J103" s="35"/>
-    </row>
-    <row r="104" spans="2:10">
+      <c r="D103" s="63"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="65"/>
+    </row>
+    <row r="104" spans="2:9">
       <c r="B104" s="35"/>
       <c r="C104" s="35"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="84"/>
-      <c r="G104" s="82"/>
-      <c r="H104" s="83"/>
-      <c r="I104" s="84"/>
-      <c r="J104" s="35"/>
-    </row>
-    <row r="105" spans="2:10">
+      <c r="D104" s="63"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="63"/>
+      <c r="H104" s="64"/>
+      <c r="I104" s="65"/>
+    </row>
+    <row r="105" spans="2:9">
       <c r="B105" s="35"/>
       <c r="C105" s="35"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="84"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="83"/>
-      <c r="I105" s="84"/>
-      <c r="J105" s="35"/>
-    </row>
-    <row r="106" spans="2:10">
+      <c r="D105" s="63"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="65"/>
+    </row>
+    <row r="106" spans="2:9">
       <c r="B106" s="35"/>
       <c r="C106" s="35"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="84"/>
-      <c r="G106" s="82"/>
-      <c r="H106" s="83"/>
-      <c r="I106" s="84"/>
-      <c r="J106" s="35"/>
-    </row>
-    <row r="107" spans="2:10">
+      <c r="D106" s="63"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="63"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="65"/>
+    </row>
+    <row r="107" spans="2:9">
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="84"/>
-      <c r="G107" s="82"/>
-      <c r="H107" s="83"/>
-      <c r="I107" s="84"/>
-      <c r="J107" s="35"/>
-    </row>
-    <row r="108" spans="2:10">
+      <c r="D107" s="63"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="65"/>
+    </row>
+    <row r="108" spans="2:9">
       <c r="B108" s="35"/>
       <c r="C108" s="35"/>
-      <c r="D108" s="82"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="84"/>
-      <c r="G108" s="82"/>
-      <c r="H108" s="83"/>
-      <c r="I108" s="84"/>
-      <c r="J108" s="35"/>
-    </row>
-    <row r="109" spans="2:10">
+      <c r="D108" s="63"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="63"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="65"/>
+    </row>
+    <row r="109" spans="2:9">
       <c r="B109" s="35"/>
       <c r="C109" s="35"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="84"/>
-      <c r="G109" s="82"/>
-      <c r="H109" s="83"/>
-      <c r="I109" s="84"/>
-      <c r="J109" s="35"/>
-    </row>
-    <row r="110" spans="2:10">
+      <c r="D109" s="63"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="65"/>
+    </row>
+    <row r="110" spans="2:9">
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="84"/>
-      <c r="G110" s="82"/>
-      <c r="H110" s="83"/>
-      <c r="I110" s="84"/>
-      <c r="J110" s="35"/>
-    </row>
-    <row r="111" spans="2:10">
+      <c r="D110" s="63"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="63"/>
+      <c r="H110" s="64"/>
+      <c r="I110" s="65"/>
+    </row>
+    <row r="111" spans="2:9">
       <c r="B111" s="35"/>
       <c r="C111" s="35"/>
-      <c r="D111" s="82"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="84"/>
-      <c r="G111" s="82"/>
-      <c r="H111" s="83"/>
-      <c r="I111" s="84"/>
-      <c r="J111" s="35"/>
-    </row>
-    <row r="112" spans="2:10">
+      <c r="D111" s="63"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="63"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="65"/>
+    </row>
+    <row r="112" spans="2:9">
       <c r="B112" s="35"/>
       <c r="C112" s="35"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="84"/>
-      <c r="G112" s="82"/>
-      <c r="H112" s="83"/>
-      <c r="I112" s="84"/>
-      <c r="J112" s="35"/>
-    </row>
-    <row r="113" spans="2:10">
+      <c r="D112" s="63"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="63"/>
+      <c r="H112" s="64"/>
+      <c r="I112" s="65"/>
+    </row>
+    <row r="113" spans="2:9">
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>
-      <c r="D113" s="82"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="84"/>
-      <c r="G113" s="82"/>
-      <c r="H113" s="83"/>
-      <c r="I113" s="84"/>
-      <c r="J113" s="35"/>
-    </row>
-    <row r="114" spans="2:10">
+      <c r="D113" s="63"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="65"/>
+    </row>
+    <row r="114" spans="2:9">
       <c r="B114" s="35"/>
       <c r="C114" s="35"/>
-      <c r="D114" s="82"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="84"/>
-      <c r="G114" s="82"/>
-      <c r="H114" s="83"/>
-      <c r="I114" s="84"/>
-      <c r="J114" s="35"/>
-    </row>
-    <row r="115" spans="2:10">
+      <c r="D114" s="63"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="63"/>
+      <c r="H114" s="64"/>
+      <c r="I114" s="65"/>
+    </row>
+    <row r="115" spans="2:9">
       <c r="B115" s="35"/>
       <c r="C115" s="35"/>
-      <c r="D115" s="82"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="84"/>
-      <c r="G115" s="82"/>
-      <c r="H115" s="83"/>
-      <c r="I115" s="84"/>
-      <c r="J115" s="35"/>
-    </row>
-    <row r="116" spans="2:10">
+      <c r="D115" s="63"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="63"/>
+      <c r="H115" s="64"/>
+      <c r="I115" s="65"/>
+    </row>
+    <row r="116" spans="2:9">
       <c r="B116" s="35"/>
       <c r="C116" s="35"/>
-      <c r="D116" s="82"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="84"/>
-      <c r="G116" s="82"/>
-      <c r="H116" s="83"/>
-      <c r="I116" s="84"/>
-      <c r="J116" s="35"/>
-    </row>
-    <row r="117" spans="2:10">
+      <c r="D116" s="63"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="63"/>
+      <c r="H116" s="64"/>
+      <c r="I116" s="65"/>
+    </row>
+    <row r="117" spans="2:9">
       <c r="B117" s="35"/>
       <c r="C117" s="35"/>
-      <c r="D117" s="82"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="84"/>
-      <c r="G117" s="82"/>
-      <c r="H117" s="83"/>
-      <c r="I117" s="84"/>
-      <c r="J117" s="35"/>
-    </row>
-    <row r="118" spans="2:10">
+      <c r="D117" s="63"/>
+      <c r="E117" s="64"/>
+      <c r="F117" s="65"/>
+      <c r="G117" s="63"/>
+      <c r="H117" s="64"/>
+      <c r="I117" s="65"/>
+    </row>
+    <row r="118" spans="2:9">
       <c r="B118" s="35"/>
       <c r="C118" s="35"/>
-      <c r="D118" s="82"/>
-      <c r="E118" s="83"/>
-      <c r="F118" s="84"/>
-      <c r="G118" s="82"/>
-      <c r="H118" s="83"/>
-      <c r="I118" s="84"/>
-      <c r="J118" s="35"/>
-    </row>
-    <row r="119" spans="2:10">
+      <c r="D118" s="63"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="63"/>
+      <c r="H118" s="64"/>
+      <c r="I118" s="65"/>
+    </row>
+    <row r="119" spans="2:9">
       <c r="B119" s="35"/>
       <c r="C119" s="35"/>
-      <c r="D119" s="82"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="84"/>
-      <c r="G119" s="82"/>
-      <c r="H119" s="83"/>
-      <c r="I119" s="84"/>
-      <c r="J119" s="35"/>
-    </row>
-    <row r="120" spans="2:10">
+      <c r="D119" s="63"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="63"/>
+      <c r="H119" s="64"/>
+      <c r="I119" s="65"/>
+    </row>
+    <row r="120" spans="2:9">
       <c r="B120" s="35"/>
       <c r="C120" s="35"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="84"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="83"/>
-      <c r="I120" s="84"/>
-      <c r="J120" s="35"/>
-    </row>
-    <row r="121" spans="2:10">
+      <c r="D120" s="63"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="65"/>
+      <c r="G120" s="63"/>
+      <c r="H120" s="64"/>
+      <c r="I120" s="65"/>
+    </row>
+    <row r="121" spans="2:9">
       <c r="B121" s="35"/>
       <c r="C121" s="35"/>
-      <c r="D121" s="82"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="84"/>
-      <c r="G121" s="82"/>
-      <c r="H121" s="83"/>
-      <c r="I121" s="84"/>
-      <c r="J121" s="35"/>
-    </row>
-    <row r="122" spans="2:10">
+      <c r="D121" s="63"/>
+      <c r="E121" s="64"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="63"/>
+      <c r="H121" s="64"/>
+      <c r="I121" s="65"/>
+    </row>
+    <row r="122" spans="2:9">
       <c r="B122" s="35"/>
       <c r="C122" s="35"/>
-      <c r="D122" s="82"/>
-      <c r="E122" s="83"/>
-      <c r="F122" s="84"/>
-      <c r="G122" s="82"/>
-      <c r="H122" s="83"/>
-      <c r="I122" s="84"/>
-      <c r="J122" s="35"/>
-    </row>
-    <row r="123" spans="2:10">
+      <c r="D122" s="63"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="65"/>
+    </row>
+    <row r="123" spans="2:9">
       <c r="B123" s="35"/>
       <c r="C123" s="35"/>
-      <c r="D123" s="82"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="84"/>
-      <c r="G123" s="82"/>
-      <c r="H123" s="83"/>
-      <c r="I123" s="84"/>
-      <c r="J123" s="35"/>
-    </row>
-    <row r="124" spans="2:10">
+      <c r="D123" s="63"/>
+      <c r="E123" s="64"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="63"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="65"/>
+    </row>
+    <row r="124" spans="2:9">
       <c r="B124" s="35"/>
       <c r="C124" s="35"/>
-      <c r="D124" s="82"/>
-      <c r="E124" s="83"/>
-      <c r="F124" s="84"/>
-      <c r="G124" s="82"/>
-      <c r="H124" s="83"/>
-      <c r="I124" s="84"/>
-      <c r="J124" s="35"/>
-    </row>
-    <row r="125" spans="2:10">
+      <c r="D124" s="63"/>
+      <c r="E124" s="64"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="63"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="65"/>
+    </row>
+    <row r="125" spans="2:9">
       <c r="B125" s="35"/>
       <c r="C125" s="35"/>
-      <c r="D125" s="82"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="84"/>
-      <c r="G125" s="82"/>
-      <c r="H125" s="83"/>
-      <c r="I125" s="84"/>
-      <c r="J125" s="35"/>
-    </row>
-    <row r="126" spans="2:10">
+      <c r="D125" s="63"/>
+      <c r="E125" s="64"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="63"/>
+      <c r="H125" s="64"/>
+      <c r="I125" s="65"/>
+    </row>
+    <row r="126" spans="2:9">
       <c r="B126" s="35"/>
       <c r="C126" s="35"/>
-      <c r="D126" s="82"/>
-      <c r="E126" s="83"/>
-      <c r="F126" s="84"/>
-      <c r="G126" s="82"/>
-      <c r="H126" s="83"/>
-      <c r="I126" s="84"/>
-      <c r="J126" s="35"/>
-    </row>
-    <row r="127" spans="2:10">
+      <c r="D126" s="63"/>
+      <c r="E126" s="64"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="64"/>
+      <c r="I126" s="65"/>
+    </row>
+    <row r="127" spans="2:9">
       <c r="B127" s="35"/>
       <c r="C127" s="35"/>
-      <c r="D127" s="82"/>
-      <c r="E127" s="83"/>
-      <c r="F127" s="84"/>
-      <c r="G127" s="82"/>
-      <c r="H127" s="83"/>
-      <c r="I127" s="84"/>
-      <c r="J127" s="35"/>
-    </row>
-    <row r="128" spans="2:10">
+      <c r="D127" s="63"/>
+      <c r="E127" s="64"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="63"/>
+      <c r="H127" s="64"/>
+      <c r="I127" s="65"/>
+    </row>
+    <row r="128" spans="2:9">
       <c r="B128" s="35"/>
       <c r="C128" s="35"/>
-      <c r="D128" s="82"/>
-      <c r="E128" s="83"/>
-      <c r="F128" s="84"/>
-      <c r="G128" s="82"/>
-      <c r="H128" s="83"/>
-      <c r="I128" s="84"/>
-      <c r="J128" s="35"/>
-    </row>
-    <row r="129" spans="2:10">
+      <c r="D128" s="63"/>
+      <c r="E128" s="64"/>
+      <c r="F128" s="65"/>
+      <c r="G128" s="63"/>
+      <c r="H128" s="64"/>
+      <c r="I128" s="65"/>
+    </row>
+    <row r="129" spans="2:9">
       <c r="B129" s="35"/>
       <c r="C129" s="35"/>
-      <c r="D129" s="82"/>
-      <c r="E129" s="83"/>
-      <c r="F129" s="84"/>
-      <c r="G129" s="82"/>
-      <c r="H129" s="83"/>
-      <c r="I129" s="84"/>
-      <c r="J129" s="35"/>
-    </row>
-    <row r="130" spans="2:10">
+      <c r="D129" s="63"/>
+      <c r="E129" s="64"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="63"/>
+      <c r="H129" s="64"/>
+      <c r="I129" s="65"/>
+    </row>
+    <row r="130" spans="2:9">
       <c r="B130" s="36"/>
       <c r="C130" s="36"/>
-      <c r="D130" s="86"/>
-      <c r="E130" s="87"/>
-      <c r="F130" s="88"/>
-      <c r="G130" s="86"/>
-      <c r="H130" s="87"/>
-      <c r="I130" s="88"/>
-      <c r="J130" s="36"/>
+      <c r="D130" s="66"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="68"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="253">
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
+  <mergeCells count="252">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="G126:I126"/>
     <mergeCell ref="D52:F52"/>
     <mergeCell ref="G52:I52"/>
     <mergeCell ref="D53:F53"/>
@@ -18077,193 +18283,48 @@
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="G47:I47"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="G71:I71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18273,8 +18334,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C62612C-A8DC-4BE0-A33C-7B66821ADB12}">
-  <dimension ref="B1:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I59"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -18291,18 +18352,18 @@
     <col min="9" max="9" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:9">
       <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>27</v>
+      <c r="D2" s="70" t="s">
+        <v>25</v>
       </c>
-      <c r="E2" s="64"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="18" t="s">
         <v>17</v>
       </c>
@@ -18313,689 +18374,653 @@
         <v>18</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:9">
       <c r="B3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="24" t="s">
-        <v>22</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B4" s="28" t="s">
-        <v>24</v>
+      <c r="D4" s="74" t="s">
+        <v>34</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="30"/>
       <c r="G4" s="31"/>
       <c r="H4" s="32"/>
       <c r="I4" s="33"/>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="69" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="2:9" ht="27" customHeight="1">
+      <c r="B7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71" t="s">
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="85" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="27" customHeight="1">
-      <c r="B7" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="73" t="s">
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="35" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="72"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="35" t="s">
-        <v>34</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="79"/>
       <c r="E8" s="80"/>
       <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65"/>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="65"/>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="65"/>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="35"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="65"/>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="35"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="35"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="35"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="35"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="35"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="35"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="35"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="35"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="65"/>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="35"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="35"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="65"/>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="35"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="65"/>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="35"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="65"/>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="35"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="D35" s="63"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="65"/>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="35"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="65"/>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="35"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="65"/>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="35"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="65"/>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="35"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="65"/>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="35"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="65"/>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="35"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="65"/>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="35"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="65"/>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="35"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="D43" s="63"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="65"/>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="D44" s="63"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="65"/>
+    </row>
+    <row r="45" spans="2:9">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="35"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="D45" s="63"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="65"/>
+    </row>
+    <row r="46" spans="2:9">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="35"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="D46" s="63"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="65"/>
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="35"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="D47" s="63"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="65"/>
+    </row>
+    <row r="48" spans="2:9">
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="36"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="68"/>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" s="35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C49" s="35"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="35"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="D49" s="63"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="65"/>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="35"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="D50" s="63"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="65"/>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="35"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="D51" s="63"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="65"/>
+    </row>
+    <row r="52" spans="2:9">
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="35"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="D52" s="63"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="65"/>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="D53" s="63"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="65"/>
+    </row>
+    <row r="54" spans="2:9">
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="35"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="D54" s="63"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="65"/>
+    </row>
+    <row r="55" spans="2:9">
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="35"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="D55" s="63"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="65"/>
+    </row>
+    <row r="56" spans="2:9">
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="35"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="D56" s="63"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="65"/>
+    </row>
+    <row r="57" spans="2:9">
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="35"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="D57" s="63"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="65"/>
+    </row>
+    <row r="58" spans="2:9">
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="35"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="D58" s="63"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="65"/>
+    </row>
+    <row r="59" spans="2:9">
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="36"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G20:I20"/>
+  <mergeCells count="110">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="G10:I10"/>
@@ -19020,61 +19045,38 @@
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19084,8 +19086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8C68A9-D97C-415C-A5D9-704A547277F4}">
-  <dimension ref="B1:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -19102,18 +19104,18 @@
     <col min="9" max="9" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:9">
       <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>27</v>
+      <c r="D2" s="70" t="s">
+        <v>25</v>
       </c>
-      <c r="E2" s="64"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="18" t="s">
         <v>17</v>
       </c>
@@ -19124,501 +19126,529 @@
         <v>18</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:9">
       <c r="B3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="24" t="s">
-        <v>22</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B4" s="28" t="s">
-        <v>24</v>
+      <c r="D4" s="74" t="s">
+        <v>39</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="30"/>
       <c r="G4" s="31"/>
       <c r="H4" s="32"/>
       <c r="I4" s="33"/>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="69" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="2:9" ht="27" customHeight="1">
+      <c r="B7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71" t="s">
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="85" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="27" customHeight="1">
-      <c r="B7" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="72"/>
-    </row>
-    <row r="8" spans="2:10" ht="18.75">
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+    </row>
+    <row r="8" spans="2:9" ht="18.75">
       <c r="B8" s="35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="79"/>
       <c r="E8" s="80"/>
       <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65"/>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="65"/>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="65"/>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="35"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="65"/>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="35"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="35"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="35"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="35"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="35"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="35"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="35"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="35"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="65"/>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="35"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="35"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="65"/>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="35"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="65"/>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="35"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="65"/>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="35"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="D35" s="63"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="65"/>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="35"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="65"/>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="35"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="65"/>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="35"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="65"/>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="35"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="65"/>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="35"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="65"/>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="35"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="65"/>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="35"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="65"/>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="35"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="D43" s="63"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="65"/>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="D44" s="63"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="65"/>
+    </row>
+    <row r="45" spans="2:9">
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="36"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="82">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="D45:F45"/>
@@ -19629,79 +19659,6 @@
     <mergeCell ref="G42:I42"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="G43:I43"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19711,8 +19668,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDF5C1D-8396-4D5F-9193-C36B802FB83B}">
-  <dimension ref="B1:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -19729,18 +19686,18 @@
     <col min="9" max="9" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:9">
       <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>27</v>
+      <c r="D2" s="70" t="s">
+        <v>25</v>
       </c>
-      <c r="E2" s="64"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="18" t="s">
         <v>17</v>
       </c>
@@ -19751,501 +19708,529 @@
         <v>18</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:9">
       <c r="B3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="24" t="s">
-        <v>22</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="2:10" ht="17.25" thickBot="1">
-      <c r="B4" s="28" t="s">
-        <v>24</v>
+      <c r="D4" s="74" t="s">
+        <v>42</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="30"/>
       <c r="G4" s="31"/>
       <c r="H4" s="32"/>
       <c r="I4" s="33"/>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="69" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="2:9" ht="27" customHeight="1">
+      <c r="B7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71" t="s">
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="85" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="27" customHeight="1">
-      <c r="B7" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="72"/>
-    </row>
-    <row r="8" spans="2:10" ht="18.75">
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+    </row>
+    <row r="8" spans="2:9" ht="18.75">
       <c r="B8" s="35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="79"/>
       <c r="E8" s="80"/>
       <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="35"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="35"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65"/>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="65"/>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="65"/>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="65"/>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="35"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="65"/>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="35"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="35"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="35"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="35"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="35"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="35"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="35"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="35"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="65"/>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="35"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="35"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="65"/>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="35"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="D31" s="63"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="65"/>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="35"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="65"/>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="35"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="65"/>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="35"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="D35" s="63"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="65"/>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="35"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="65"/>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="35"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="65"/>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="35"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="65"/>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="35"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="65"/>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="35"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="65"/>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="35"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="65"/>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="35"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="65"/>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="35"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="D43" s="63"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="65"/>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="35"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="D44" s="63"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="65"/>
+    </row>
+    <row r="45" spans="2:9">
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="36"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="82">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="D45:F45"/>
@@ -20256,79 +20241,6 @@
     <mergeCell ref="G42:I42"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="G43:I43"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20338,6 +20250,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100863E6D56048103428864592FDA0DF880" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="4997b50c13a923bbed58c6f6d6cb642f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="536e5961-041d-4b01-bd2d-55871273bf8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44a7fc442d22f06cc5bf5df0a699cc3a" ns3:_="">
     <xsd:import namespace="536e5961-041d-4b01-bd2d-55871273bf8c"/>
@@ -20469,22 +20396,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1859EB3E-6EFB-4359-B0EC-D885D4449CE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="536e5961-041d-4b01-bd2d-55871273bf8c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B9BF00-4A96-4F94-AC7E-93F788F2F75B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C1AAAD0-8C43-42C1-83F4-46126E6FF247}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20500,28 +20436,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06B9BF00-4A96-4F94-AC7E-93F788F2F75B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1859EB3E-6EFB-4359-B0EC-D885D4449CE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="536e5961-041d-4b01-bd2d-55871273bf8c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>